--- a/INDIVIDUALES/productor 23.xlsx
+++ b/INDIVIDUALES/productor 23.xlsx
@@ -2220,6 +2220,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="3810000"/>
+          <a:ext cx="7629525" cy="4585832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2847,7 +2885,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
